--- a/natmiOut/OldD7/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>24.2097812526066</v>
+        <v>0.772687</v>
       </c>
       <c r="H2">
-        <v>24.2097812526066</v>
+        <v>2.318061</v>
       </c>
       <c r="I2">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="J2">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.42447487064357</v>
+        <v>2.26464</v>
       </c>
       <c r="N2">
-        <v>1.42447487064357</v>
+        <v>6.79392</v>
       </c>
       <c r="O2">
-        <v>0.3733360323216175</v>
+        <v>0.1949446419849994</v>
       </c>
       <c r="P2">
-        <v>0.3733360323216175</v>
+        <v>0.1949446419849994</v>
       </c>
       <c r="Q2">
-        <v>34.48622501811591</v>
+        <v>1.74985788768</v>
       </c>
       <c r="R2">
-        <v>34.48622501811591</v>
+        <v>15.74872098912</v>
       </c>
       <c r="S2">
-        <v>0.3534134160030142</v>
+        <v>0.005349139372245117</v>
       </c>
       <c r="T2">
-        <v>0.3534134160030142</v>
+        <v>0.005349139372245117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>24.2097812526066</v>
+        <v>0.772687</v>
       </c>
       <c r="H3">
-        <v>24.2097812526066</v>
+        <v>2.318061</v>
       </c>
       <c r="I3">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="J3">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.06222535437747</v>
+        <v>1.432364333333333</v>
       </c>
       <c r="N3">
-        <v>1.06222535437747</v>
+        <v>4.297093</v>
       </c>
       <c r="O3">
-        <v>0.2783952229747247</v>
+        <v>0.1233007242448023</v>
       </c>
       <c r="P3">
-        <v>0.2783952229747247</v>
+        <v>0.1233007242448023</v>
       </c>
       <c r="Q3">
-        <v>25.71624347045108</v>
+        <v>1.106769299630333</v>
       </c>
       <c r="R3">
-        <v>25.71624347045108</v>
+        <v>9.960923696673001</v>
       </c>
       <c r="S3">
-        <v>0.2635390057010611</v>
+        <v>0.003383282310138901</v>
       </c>
       <c r="T3">
-        <v>0.2635390057010611</v>
+        <v>0.003383282310138902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>24.2097812526066</v>
+        <v>0.772687</v>
       </c>
       <c r="H4">
-        <v>24.2097812526066</v>
+        <v>2.318061</v>
       </c>
       <c r="I4">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="J4">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.32882988008392</v>
+        <v>2.324070333333334</v>
       </c>
       <c r="N4">
-        <v>1.32882988008392</v>
+        <v>6.972211000000001</v>
       </c>
       <c r="O4">
-        <v>0.3482687447036578</v>
+        <v>0.2000605213542218</v>
       </c>
       <c r="P4">
-        <v>0.3482687447036578</v>
+        <v>0.2000605213542218</v>
       </c>
       <c r="Q4">
-        <v>32.17068071875917</v>
+        <v>1.795778933652334</v>
       </c>
       <c r="R4">
-        <v>32.17068071875917</v>
+        <v>16.162010402871</v>
       </c>
       <c r="S4">
-        <v>0.3296838132322821</v>
+        <v>0.005489515386065851</v>
       </c>
       <c r="T4">
-        <v>0.3296838132322821</v>
+        <v>0.005489515386065852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.36475346212913</v>
+        <v>0.772687</v>
       </c>
       <c r="H5">
-        <v>1.36475346212913</v>
+        <v>2.318061</v>
       </c>
       <c r="I5">
-        <v>0.05336376506364262</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="J5">
-        <v>0.05336376506364262</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.42447487064357</v>
+        <v>5.595761666666667</v>
       </c>
       <c r="N5">
-        <v>1.42447487064357</v>
+        <v>16.787285</v>
       </c>
       <c r="O5">
-        <v>0.3733360323216175</v>
+        <v>0.4816941124159764</v>
       </c>
       <c r="P5">
-        <v>0.3733360323216175</v>
+        <v>0.4816941124159765</v>
       </c>
       <c r="Q5">
-        <v>1.944057011426757</v>
+        <v>4.323772294931667</v>
       </c>
       <c r="R5">
-        <v>1.944057011426757</v>
+        <v>38.913950654385</v>
       </c>
       <c r="S5">
-        <v>0.01992261631860328</v>
+        <v>0.01321733655188755</v>
       </c>
       <c r="T5">
-        <v>0.01992261631860328</v>
+        <v>0.01321733655188755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.36475346212913</v>
+        <v>24.47381466666667</v>
       </c>
       <c r="H6">
-        <v>1.36475346212913</v>
+        <v>73.42144400000001</v>
       </c>
       <c r="I6">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="J6">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.06222535437747</v>
+        <v>2.26464</v>
       </c>
       <c r="N6">
-        <v>1.06222535437747</v>
+        <v>6.79392</v>
       </c>
       <c r="O6">
-        <v>0.2783952229747247</v>
+        <v>0.1949446419849994</v>
       </c>
       <c r="P6">
-        <v>0.2783952229747247</v>
+        <v>0.1949446419849994</v>
       </c>
       <c r="Q6">
-        <v>1.449675729947994</v>
+        <v>55.42437964672001</v>
       </c>
       <c r="R6">
-        <v>1.449675729947994</v>
+        <v>498.8194168204801</v>
       </c>
       <c r="S6">
-        <v>0.01485621727366361</v>
+        <v>0.1694267479878614</v>
       </c>
       <c r="T6">
-        <v>0.01485621727366361</v>
+        <v>0.1694267479878614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.36475346212913</v>
+        <v>24.47381466666667</v>
       </c>
       <c r="H7">
-        <v>1.36475346212913</v>
+        <v>73.42144400000001</v>
       </c>
       <c r="I7">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="J7">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.32882988008392</v>
+        <v>1.432364333333333</v>
       </c>
       <c r="N7">
-        <v>1.32882988008392</v>
+        <v>4.297093</v>
       </c>
       <c r="O7">
-        <v>0.3482687447036578</v>
+        <v>0.1233007242448023</v>
       </c>
       <c r="P7">
-        <v>0.3482687447036578</v>
+        <v>0.1233007242448023</v>
       </c>
       <c r="Q7">
-        <v>1.813525179425166</v>
+        <v>35.05541922914356</v>
       </c>
       <c r="R7">
-        <v>1.813525179425166</v>
+        <v>315.4987730622921</v>
       </c>
       <c r="S7">
-        <v>0.01858493147137573</v>
+        <v>0.1071608869093842</v>
       </c>
       <c r="T7">
-        <v>0.01858493147137573</v>
+        <v>0.1071608869093842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>24.47381466666667</v>
+      </c>
+      <c r="H8">
+        <v>73.42144400000001</v>
+      </c>
+      <c r="I8">
+        <v>0.86910184482474</v>
+      </c>
+      <c r="J8">
+        <v>0.86910184482474</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.324070333333334</v>
+      </c>
+      <c r="N8">
+        <v>6.972211000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.2000605213542218</v>
+      </c>
+      <c r="P8">
+        <v>0.2000605213542218</v>
+      </c>
+      <c r="Q8">
+        <v>56.87886661029824</v>
+      </c>
+      <c r="R8">
+        <v>511.9097994926841</v>
+      </c>
+      <c r="S8">
+        <v>0.1738729681855535</v>
+      </c>
+      <c r="T8">
+        <v>0.1738729681855535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>24.47381466666667</v>
+      </c>
+      <c r="H9">
+        <v>73.42144400000001</v>
+      </c>
+      <c r="I9">
+        <v>0.86910184482474</v>
+      </c>
+      <c r="J9">
+        <v>0.86910184482474</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.595761666666667</v>
+      </c>
+      <c r="N9">
+        <v>16.787285</v>
+      </c>
+      <c r="O9">
+        <v>0.4816941124159764</v>
+      </c>
+      <c r="P9">
+        <v>0.4816941124159765</v>
+      </c>
+      <c r="Q9">
+        <v>136.9496339488378</v>
+      </c>
+      <c r="R9">
+        <v>1232.54670553954</v>
+      </c>
+      <c r="S9">
+        <v>0.4186412417419408</v>
+      </c>
+      <c r="T9">
+        <v>0.4186412417419408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.913391</v>
+      </c>
+      <c r="H10">
+        <v>8.740173</v>
+      </c>
+      <c r="I10">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="J10">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>2.26464</v>
+      </c>
+      <c r="N10">
+        <v>6.79392</v>
+      </c>
+      <c r="O10">
+        <v>0.1949446419849994</v>
+      </c>
+      <c r="P10">
+        <v>0.1949446419849994</v>
+      </c>
+      <c r="Q10">
+        <v>6.59778179424</v>
+      </c>
+      <c r="R10">
+        <v>59.38003614816</v>
+      </c>
+      <c r="S10">
+        <v>0.02016875462489284</v>
+      </c>
+      <c r="T10">
+        <v>0.02016875462489284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.913391</v>
+      </c>
+      <c r="H11">
+        <v>8.740173</v>
+      </c>
+      <c r="I11">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="J11">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.432364333333333</v>
+      </c>
+      <c r="N11">
+        <v>4.297093</v>
+      </c>
+      <c r="O11">
+        <v>0.1233007242448023</v>
+      </c>
+      <c r="P11">
+        <v>0.1233007242448023</v>
+      </c>
+      <c r="Q11">
+        <v>4.173037357454334</v>
+      </c>
+      <c r="R11">
+        <v>37.557336217089</v>
+      </c>
+      <c r="S11">
+        <v>0.01275655502527917</v>
+      </c>
+      <c r="T11">
+        <v>0.01275655502527917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.913391</v>
+      </c>
+      <c r="H12">
+        <v>8.740173</v>
+      </c>
+      <c r="I12">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="J12">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.324070333333334</v>
+      </c>
+      <c r="N12">
+        <v>6.972211000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2000605213542218</v>
+      </c>
+      <c r="P12">
+        <v>0.2000605213542218</v>
+      </c>
+      <c r="Q12">
+        <v>6.770925592500335</v>
+      </c>
+      <c r="R12">
+        <v>60.93833033250301</v>
+      </c>
+      <c r="S12">
+        <v>0.0206980377826025</v>
+      </c>
+      <c r="T12">
+        <v>0.0206980377826025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.913391</v>
+      </c>
+      <c r="H13">
+        <v>8.740173</v>
+      </c>
+      <c r="I13">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="J13">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.595761666666667</v>
+      </c>
+      <c r="N13">
+        <v>16.787285</v>
+      </c>
+      <c r="O13">
+        <v>0.4816941124159764</v>
+      </c>
+      <c r="P13">
+        <v>0.4816941124159765</v>
+      </c>
+      <c r="Q13">
+        <v>16.30264167781167</v>
+      </c>
+      <c r="R13">
+        <v>146.723775100305</v>
+      </c>
+      <c r="S13">
+        <v>0.04983553412214807</v>
+      </c>
+      <c r="T13">
+        <v>0.04983553412214808</v>
       </c>
     </row>
   </sheetData>
